--- a/result1.xlsx
+++ b/result1.xlsx
@@ -488,103 +488,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3.138102 rad</t>
+          <t>3.124884 rad</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>81.43180753159267</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>17665.0008224662</v>
+        <v>17663.090258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4712379410551911</v>
+        <v>2.28781</v>
       </c>
       <c r="F2" t="n">
         <v>1800</v>
       </c>
       <c r="G2" t="n">
-        <v>17125.00411233099</v>
+        <v>17392.642789</v>
       </c>
       <c r="H2" t="n">
-        <v>2.356189705275956</v>
+        <v>6.807082</v>
       </c>
       <c r="I2" t="n">
-        <v>1721.6</v>
+        <v>1745.937637</v>
       </c>
       <c r="J2" t="n">
-        <v>3.275</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3.138102 rad</t>
+          <t>2.196009 rad</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>99.71272747361638</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>17125.00411233099</v>
+        <v>17556.809676</v>
       </c>
       <c r="E3" t="n">
-        <v>2.356189705275956</v>
+        <v>336.918348</v>
       </c>
       <c r="F3" t="n">
         <v>1800</v>
       </c>
       <c r="G3" t="n">
-        <v>16315.00904712818</v>
+        <v>17213.404355</v>
       </c>
       <c r="H3" t="n">
-        <v>5.183617351607102</v>
+        <v>812.675569</v>
       </c>
       <c r="I3" t="n">
-        <v>1623.6</v>
+        <v>1630.333236</v>
       </c>
       <c r="J3" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3.138102 rad</t>
+          <t>-2.358042 rad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135</v>
+        <v>114.4666214167514</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>16517.50781342889</v>
+        <v>17759.455256</v>
       </c>
       <c r="E4" t="n">
-        <v>4.476760440024315</v>
+        <v>-40.395243</v>
       </c>
       <c r="F4" t="n">
         <v>1800</v>
       </c>
       <c r="G4" t="n">
-        <v>15572.51357069227</v>
+        <v>17138.533562</v>
       </c>
       <c r="H4" t="n">
-        <v>7.775426027410653</v>
+        <v>-659.027409</v>
       </c>
       <c r="I4" t="n">
-        <v>1559.9</v>
+        <v>1512.696682</v>
       </c>
       <c r="J4" t="n">
-        <v>4.815</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
